--- a/assignment 1/data/bondtest_data.xlsx
+++ b/assignment 1/data/bondtest_data.xlsx
@@ -400,7 +400,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -431,68 +431,54 @@
         <v>100</v>
       </c>
       <c r="B2" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>97.5</v>
+        <v>94.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>100</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.5</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>94.9</v>
+      <c r="D3" s="3">
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>100</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
+      <c r="B4" s="4">
+        <v>1.5</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>100</v>
       </c>
-      <c r="B5" s="4">
-        <v>1.5</v>
+      <c r="B5" s="3">
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
-        <v>100</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D5" s="4">
         <v>101.6</v>
       </c>
     </row>
